--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="200">
   <si>
     <t>主键</t>
   </si>
@@ -532,7 +532,7 @@
     <t>npc</t>
   </si>
   <si>
-    <t>npc\units\common\unit_ward_observer.lua</t>
+    <t>npc\units\common\unit_ward_observer</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
@@ -547,7 +547,7 @@
     <t>遥控炸弹</t>
   </si>
   <si>
-    <t>npc\units\common\unit_remote_mine.lua</t>
+    <t>npc\units\common\unit_remote_mine</t>
   </si>
   <si>
     <t>unit_dummy</t>
@@ -556,7 +556,7 @@
     <t>目标伤害点</t>
   </si>
   <si>
-    <t>npc\units\common\unit_dummy.lua</t>
+    <t>npc\units\common\unit_dummy</t>
   </si>
   <si>
     <t>models/development/invisiblebox.vmdl</t>
@@ -572,6 +572,27 @@
   </si>
   <si>
     <t>DOTA_UNIT_CAP_NO_ATTACK</t>
+  </si>
+  <si>
+    <t>unit_portal</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>npc\units\common\unit_portal</t>
+  </si>
+  <si>
+    <t>models/heroes/abyssal_underlord/abyssal_underlord_portal_model.vmdl</t>
+  </si>
+  <si>
+    <t>Creep_Good_Melee</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -642,12 +663,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,11 +677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="15"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -671,14 +691,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +714,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,38 +729,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,15 +754,52 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,9 +813,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,14 +824,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -809,43 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +878,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,61 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +962,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +992,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,6 +1027,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1014,15 +1052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1071,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1053,26 +1091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,16 +1118,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1145,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1283,6 +1310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1606,11 +1636,11 @@
   <dimension ref="A1:CE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="M1:P2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1625,7 +1655,7 @@
     <col min="10" max="10" width="63" style="7" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="7" customWidth="1"/>
     <col min="12" max="16" width="19.5" style="11" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="11" customWidth="1"/>
+    <col min="17" max="17" width="20.25" style="11" customWidth="1"/>
     <col min="18" max="20" width="17.75" style="11" customWidth="1"/>
     <col min="21" max="21" width="14.375" style="11" customWidth="1"/>
     <col min="22" max="22" width="8.375" style="11" customWidth="1"/>
@@ -2262,6 +2292,104 @@
       </c>
       <c r="AU5" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="6" ht="39" spans="1:67">
+      <c r="A6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" s="11">
+        <v>200</v>
+      </c>
+      <c r="O6" s="11">
+        <v>200</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM6">
+        <v>0.5</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>10000</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC6">
+        <v>900</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="10:11">
@@ -2378,10 +2506,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:83">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2626,10 +2754,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:83">
       <c r="A2" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
@@ -2842,7 +2970,7 @@
         <v>153</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>154</v>
@@ -2877,264 +3005,264 @@
     </row>
     <row r="3" spans="1:83">
       <c r="A3" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BB3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BD3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BG3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BH3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BI3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BJ3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BK3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BL3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BM3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BN3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BQ3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BR3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BU3" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="BV3" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="BX3" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="BY3" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="BZ3" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="CA3" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="CC3" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="CD3" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="CE3" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:83">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>81</v>
@@ -3347,34 +3475,34 @@
         <v>81</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="20:21">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
   <si>
     <t>主键</t>
   </si>
@@ -589,10 +589,61 @@
     <t>Creep_Good_Melee</t>
   </si>
   <si>
+    <t>particles/units/heroes/heroes_underlord</t>
+  </si>
+  <si>
     <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
   </si>
   <si>
     <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>unit_base_baoxiang</t>
+  </si>
+  <si>
+    <t>基地宝箱</t>
+  </si>
+  <si>
+    <t>npc\units\common\unit_base_baoxiang</t>
+  </si>
+  <si>
+    <t>models/ui/treasure/reaver_2022_treasure/reaver_2022_treasure.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_bossbaoxiang</t>
+  </si>
+  <si>
+    <t>基地统领宝箱</t>
+  </si>
+  <si>
+    <t>npc\units\common\unit_base_bossbaoxiang</t>
+  </si>
+  <si>
+    <t>models/ui/treasure/ti10_treasure/ti10_treasure.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_gold_bag</t>
+  </si>
+  <si>
+    <t>基地金币袋子</t>
+  </si>
+  <si>
+    <t>npc\units\common\unit_base_gold_bag</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/gold_bag.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_equip_bag</t>
+  </si>
+  <si>
+    <t>装备箱子</t>
+  </si>
+  <si>
+    <t>npc\units\common\unit_base_equip_bag</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/treasure_chest001b.vmdl</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -663,24 +714,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -690,24 +735,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,9 +757,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +781,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,6 +811,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -760,33 +841,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,23 +857,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,13 +893,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,103 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,31 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,13 +1075,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,55 +1157,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,10 +1178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,137 +1190,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1310,9 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1636,16 +1678,16 @@
   <dimension ref="A1:CE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.8333333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="10" customWidth="1"/>
     <col min="3" max="5" width="12.875" style="7" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1654,7 +1696,9 @@
     <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
     <col min="10" max="10" width="63" style="7" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="7" customWidth="1"/>
-    <col min="12" max="16" width="19.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="20.3666666666667" style="11" customWidth="1"/>
+    <col min="14" max="16" width="19.5" style="11" customWidth="1"/>
     <col min="17" max="17" width="20.25" style="11" customWidth="1"/>
     <col min="18" max="20" width="17.75" style="11" customWidth="1"/>
     <col min="21" max="21" width="14.375" style="11" customWidth="1"/>
@@ -1668,7 +1712,7 @@
     <col min="35" max="35" width="17.125" style="11" customWidth="1"/>
     <col min="36" max="36" width="21.5" style="11" customWidth="1"/>
     <col min="37" max="37" width="19" customWidth="1"/>
-    <col min="38" max="38" width="17.125" style="11" customWidth="1"/>
+    <col min="38" max="38" width="31.25" style="11" customWidth="1"/>
     <col min="39" max="39" width="21.5" customWidth="1"/>
     <col min="40" max="40" width="24.875" customWidth="1"/>
     <col min="41" max="41" width="14.875" customWidth="1"/>
@@ -2294,7 +2338,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" ht="39" spans="1:67">
+    <row r="6" spans="1:67">
       <c r="A6" s="10" t="s">
         <v>172</v>
       </c>
@@ -2320,10 +2364,13 @@
         <v>175</v>
       </c>
       <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>176</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="N6" s="11">
         <v>200</v>
@@ -2331,6 +2378,9 @@
       <c r="O6" s="11">
         <v>200</v>
       </c>
+      <c r="T6" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ6" s="11">
         <v>200</v>
       </c>
@@ -2386,20 +2436,409 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BO6" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67">
+      <c r="A7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM7">
+        <v>0.5</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>10000</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC7">
+        <v>900</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="BO7" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="9" spans="10:11">
-      <c r="J9"/>
-      <c r="K9"/>
+    <row r="8" spans="1:67">
+      <c r="A8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM8">
+        <v>0.5</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>10000</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC8">
+        <v>900</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="10" spans="9:11">
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
+    <row r="9" spans="1:67">
+      <c r="A9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM9">
+        <v>0.5</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>10000</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC9">
+        <v>900</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67">
+      <c r="A10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>200</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>10000</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC10">
+        <v>900</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11"/>
@@ -2506,10 +2945,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:83">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2754,10 +3193,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:83">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
@@ -2970,7 +3409,7 @@
         <v>153</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>154</v>
@@ -3005,265 +3444,265 @@
     </row>
     <row r="3" spans="1:83">
       <c r="A3" s="9" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BB3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BD3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BG3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BH3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BI3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BJ3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BK3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BL3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BM3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BN3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BQ3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BR3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="BU3" s="9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="BV3" s="9" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="BX3" s="9" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="BY3" s="9" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="BZ3" s="9" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="CA3" s="9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="CC3" s="9" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="CD3" s="9" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CE3" s="9" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:83">
       <c r="A4" s="9" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
@@ -3475,34 +3914,34 @@
         <v>81</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="20:21">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -715,9 +715,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -729,7 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,50 +738,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +759,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -811,7 +781,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,9 +834,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +911,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,43 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +977,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,73 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,16 +1093,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1123,6 +1125,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1134,6 +1145,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,36 +1172,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,19 +1190,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,112 +1211,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1678,11 +1678,11 @@
   <dimension ref="A1:CE29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="199">
   <si>
     <t>主键</t>
   </si>
@@ -452,7 +452,7 @@
     <t>npc</t>
   </si>
   <si>
-    <t>npc/units/common/unit_ward_observer</t>
+    <t>npc/units/common/npc_unit_comon</t>
   </si>
   <si>
     <t>npc_dota_creature</t>
@@ -467,18 +467,12 @@
     <t>遥控炸弹</t>
   </si>
   <si>
-    <t>npc/units/common/unit_remote_mine</t>
-  </si>
-  <si>
     <t>unit_dummy</t>
   </si>
   <si>
     <t>目标伤害点</t>
   </si>
   <si>
-    <t>npc/units/common/unit_dummy</t>
-  </si>
-  <si>
     <t>models/development/invisiblebox.vmdl</t>
   </si>
   <si>
@@ -500,9 +494,6 @@
     <t>传送门</t>
   </si>
   <si>
-    <t>npc/units/common/unit_portal</t>
-  </si>
-  <si>
     <t>models/heroes/abyssal_underlord/abyssal_underlord_portal_model.vmdl</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
     <t>基地宝箱</t>
   </si>
   <si>
-    <t>npc/units/common/unit_base_baoxiang</t>
-  </si>
-  <si>
     <t>models/ui/treasure/reaver_2022_treasure/reaver_2022_treasure.vmdl</t>
   </si>
   <si>
@@ -536,9 +524,6 @@
     <t>基地统领宝箱</t>
   </si>
   <si>
-    <t>npc/units/common/unit_base_bossbaoxiang</t>
-  </si>
-  <si>
     <t>models/ui/treasure/ti10_treasure/ti10_treasure.vmdl</t>
   </si>
   <si>
@@ -548,9 +533,6 @@
     <t>基地金币袋子</t>
   </si>
   <si>
-    <t>npc/units/common/unit_base_gold_bag</t>
-  </si>
-  <si>
     <t>models/props_gameplay/gold_bag.vmdl</t>
   </si>
   <si>
@@ -560,9 +542,6 @@
     <t>装备箱子</t>
   </si>
   <si>
-    <t>npc/units/common/unit_base_equip_bag</t>
-  </si>
-  <si>
     <t>models/props_gameplay/treasure_chest001b.vmdl</t>
   </si>
   <si>
@@ -570,9 +549,6 @@
   </si>
   <si>
     <t>傀儡目标</t>
-  </si>
-  <si>
-    <t>npc/units/common/unit_target_dummy</t>
   </si>
   <si>
     <t>models/props_gameplay/dummy/dummy.vmdl</t>
@@ -1610,21 +1586,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX29"/>
+  <dimension ref="A1:BX26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.8333333333333" style="10" customWidth="1"/>
     <col min="2" max="4" width="12.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="14.6416666666667" customWidth="1"/>
     <col min="6" max="6" width="41.875" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="63" style="11" customWidth="1"/>
@@ -1654,6 +1630,7 @@
     <col min="42" max="42" width="17" customWidth="1"/>
     <col min="43" max="43" width="10.625" customWidth="1"/>
     <col min="44" max="44" width="16.25" customWidth="1"/>
+    <col min="45" max="45" width="25.3666666666667" customWidth="1"/>
     <col min="64" max="64" width="35.125" customWidth="1"/>
     <col min="65" max="65" width="35.25" customWidth="1"/>
     <col min="66" max="66" width="30.625" customWidth="1"/>
@@ -2165,7 +2142,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>145</v>
@@ -2179,84 +2156,84 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="AS5" t="s">
         <v>155</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L6" s="12">
         <v>200</v>
@@ -2265,7 +2242,7 @@
         <v>200</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AH6" s="12">
         <v>200</v>
@@ -2274,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK6">
         <v>0.5</v>
@@ -2298,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BA6">
         <v>900</v>
@@ -2322,45 +2299,45 @@
         <v>0</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -2375,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK7">
         <v>0.5</v>
@@ -2399,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BA7">
         <v>900</v>
@@ -2423,45 +2400,45 @@
         <v>0</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -2476,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK8">
         <v>0.5</v>
@@ -2500,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BA8">
         <v>900</v>
@@ -2524,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2574,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK9">
         <v>0.5</v>
@@ -2598,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BA9">
         <v>900</v>
@@ -2622,42 +2599,42 @@
         <v>0</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -2672,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK10">
         <v>0.5</v>
@@ -2696,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BA10">
         <v>900</v>
@@ -2720,42 +2697,42 @@
         <v>0</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:65">
       <c r="A11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>184</v>
+      <c r="F11" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L11" s="10">
         <v>0</v>
@@ -2767,7 +2744,7 @@
         <v>200</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AK11" s="10">
         <v>0.5</v>
@@ -2791,16 +2768,16 @@
         <v>100</v>
       </c>
       <c r="AS11" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BK11" s="10">
         <v>1</v>
       </c>
       <c r="BL11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BM11" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="7:9">
@@ -2810,10 +2787,12 @@
     </row>
     <row r="13" spans="7:9">
       <c r="G13"/>
+      <c r="H13" s="10"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="7:9">
       <c r="G14"/>
+      <c r="H14" s="10"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="7:9">
@@ -2826,27 +2805,12 @@
       <c r="H16" s="10"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="7:9">
-      <c r="G17"/>
-      <c r="H17" s="10"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="7:9">
-      <c r="G18"/>
-      <c r="H18" s="10"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="7:9">
-      <c r="G19"/>
-      <c r="H19" s="10"/>
-      <c r="I19"/>
-    </row>
-    <row r="29" spans="10:14">
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+    <row r="26" spans="10:14">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2865,7 +2829,7 @@
   <sheetPr/>
   <dimension ref="A1:BX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2905,10 +2869,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:76">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3132,10 +3096,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:76">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>74</v>
@@ -3327,7 +3291,7 @@
         <v>139</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BO2" s="2" t="s">
         <v>140</v>
@@ -3362,243 +3326,243 @@
     </row>
     <row r="3" spans="1:76">
       <c r="A3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="BT3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="BU3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="BV3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="BN3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BW3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BX3" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="BQ3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BR3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="BU3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="BW3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BX3" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -3790,34 +3754,34 @@
         <v>74</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="18:19">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <t>字段</t>
   </si>
   <si>
-    <t>DOTAUnits</t>
+    <t>common_units</t>
   </si>
   <si>
     <t>Creature</t>
@@ -1588,7 +1588,7 @@
   <sheetPr/>
   <dimension ref="A1:BX26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2829,8 +2829,8 @@
   <sheetPr/>
   <dimension ref="A1:BX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="200">
   <si>
     <t>主键</t>
   </si>
@@ -509,10 +509,13 @@
     <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
   </si>
   <si>
-    <t>unit_base_baoxiang</t>
-  </si>
-  <si>
-    <t>基地宝箱</t>
+    <t>unit_enemy_courier</t>
+  </si>
+  <si>
+    <t>敌方信使</t>
+  </si>
+  <si>
+    <t>npc/courier/enemy_courier</t>
   </si>
   <si>
     <t>models/ui/treasure/reaver_2022_treasure/reaver_2022_treasure.vmdl</t>
@@ -1588,12 +1591,12 @@
   <sheetPr/>
   <dimension ref="A1:BX26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="BK7" sqref="BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1609,7 +1612,8 @@
     <col min="11" max="11" width="20.3666666666667" style="12" customWidth="1"/>
     <col min="12" max="14" width="19.5" style="12" customWidth="1"/>
     <col min="15" max="15" width="20.25" style="12" customWidth="1"/>
-    <col min="16" max="18" width="17.75" style="12" customWidth="1"/>
+    <col min="16" max="17" width="17.75" style="12" customWidth="1"/>
+    <col min="18" max="18" width="31.2333333333333" style="12" customWidth="1"/>
     <col min="19" max="19" width="14.375" style="12" customWidth="1"/>
     <col min="20" max="20" width="8.375" style="12" customWidth="1"/>
     <col min="21" max="21" width="12.375" style="12" customWidth="1"/>
@@ -1626,7 +1630,7 @@
     <col min="38" max="38" width="24.875" customWidth="1"/>
     <col min="39" max="39" width="14.875" customWidth="1"/>
     <col min="40" max="40" width="15.5" customWidth="1"/>
-    <col min="41" max="41" width="13.75" customWidth="1"/>
+    <col min="41" max="41" width="11.4166666666667" customWidth="1"/>
     <col min="42" max="42" width="17" customWidth="1"/>
     <col min="43" max="43" width="10.625" customWidth="1"/>
     <col min="44" max="44" width="16.25" customWidth="1"/>
@@ -2322,13 +2326,13 @@
         <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -2340,16 +2344,16 @@
         <v>152</v>
       </c>
       <c r="L7" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M7" s="12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" s="12">
         <v>200</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AJ7" s="12" t="s">
         <v>154</v>
@@ -2364,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2398,6 +2402,9 @@
       </c>
       <c r="BH7">
         <v>0</v>
+      </c>
+      <c r="BK7" s="10">
+        <v>1</v>
       </c>
       <c r="BL7" s="2" t="s">
         <v>161</v>
@@ -2408,16 +2415,16 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>143</v>
@@ -2429,7 +2436,7 @@
         <v>145</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
@@ -2509,16 +2516,16 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>143</v>
@@ -2530,7 +2537,7 @@
         <v>145</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2607,16 +2614,16 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>143</v>
@@ -2628,7 +2635,7 @@
         <v>145</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -2705,16 +2712,16 @@
     </row>
     <row r="11" s="10" customFormat="1" spans="1:65">
       <c r="A11" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>143</v>
@@ -2726,7 +2733,7 @@
         <v>145</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
@@ -2829,7 +2836,7 @@
   <sheetPr/>
   <dimension ref="A1:BX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2869,10 +2876,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:76">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3096,10 +3103,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:76">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>74</v>
@@ -3291,7 +3298,7 @@
         <v>139</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BO2" s="2" t="s">
         <v>140</v>
@@ -3326,243 +3333,243 @@
     </row>
     <row r="3" spans="1:76">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN3" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="BO3" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BP3" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BQ3" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BR3" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BT3" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BU3" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BW3" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BX3" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -3754,34 +3761,34 @@
         <v>74</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="18:19">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>物理护甲</t>
   </si>
   <si>
-    <t>魔法防御</t>
+    <t>魔法护甲</t>
   </si>
   <si>
     <t>出生生命值</t>
@@ -359,7 +359,7 @@
     <t>ArmorPhysical</t>
   </si>
   <si>
-    <t>MagicalResistance</t>
+    <t>ArmorMagical</t>
   </si>
   <si>
     <t>StatusHealth</t>
@@ -630,9 +630,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1089,10 +1096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,34 +1108,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,98 +1144,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1257,6 +1264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1591,41 +1601,41 @@
   <sheetPr/>
   <dimension ref="A1:BX26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK7" sqref="BK7"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.8333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.8333333333333" style="11" customWidth="1"/>
     <col min="2" max="4" width="12.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.6416666666667" customWidth="1"/>
     <col min="6" max="6" width="41.875" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="63" style="11" customWidth="1"/>
+    <col min="8" max="8" width="63" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.3666666666667" style="12" customWidth="1"/>
-    <col min="12" max="14" width="19.5" style="12" customWidth="1"/>
-    <col min="15" max="15" width="20.25" style="12" customWidth="1"/>
-    <col min="16" max="17" width="17.75" style="12" customWidth="1"/>
-    <col min="18" max="18" width="31.2333333333333" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="8.375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="15.75" style="12" customWidth="1"/>
-    <col min="23" max="23" width="11.875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="11" style="12" customWidth="1"/>
-    <col min="25" max="31" width="8.125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="16.5" style="12" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="21.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.3666666666667" style="13" customWidth="1"/>
+    <col min="12" max="14" width="19.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17.75" style="13" customWidth="1"/>
+    <col min="18" max="18" width="31.2333333333333" style="13" customWidth="1"/>
+    <col min="19" max="19" width="14.375" style="13" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="13" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="13" customWidth="1"/>
+    <col min="23" max="23" width="11.875" style="13" customWidth="1"/>
+    <col min="24" max="24" width="11" style="13" customWidth="1"/>
+    <col min="25" max="31" width="8.125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="16.5" style="13" customWidth="1"/>
+    <col min="33" max="33" width="17.125" style="13" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="13" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="31.25" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.25" style="13" customWidth="1"/>
     <col min="37" max="37" width="21.5" customWidth="1"/>
     <col min="38" max="38" width="24.875" customWidth="1"/>
     <col min="39" max="39" width="14.875" customWidth="1"/>
@@ -1662,7 +1672,7 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1758,7 +1768,7 @@
       <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="AO1" s="5" t="s">
@@ -1892,7 +1902,7 @@
       <c r="G2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -1988,7 +1998,7 @@
       <c r="AM2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="10" t="s">
         <v>113</v>
       </c>
       <c r="AO2" s="7" t="s">
@@ -2101,7 +2111,7 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2122,7 +2132,7 @@
       <c r="G3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>146</v>
       </c>
       <c r="I3" s="7">
@@ -2130,7 +2140,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2151,7 +2161,7 @@
       <c r="G4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>146</v>
       </c>
       <c r="I4" s="7">
@@ -2159,7 +2169,7 @@
       </c>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2180,25 +2190,25 @@
       <c r="G5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>151</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AS5" t="s">
@@ -2206,7 +2216,7 @@
       </c>
     </row>
     <row r="6" spans="1:65">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2227,34 +2237,34 @@
       <c r="G6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>158</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>200</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>200</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="13">
         <v>200</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="AJ6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AK6">
@@ -2310,7 +2320,7 @@
       </c>
     </row>
     <row r="7" spans="1:65">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2331,31 +2341,31 @@
       <c r="G7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>166</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>1000</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>1000</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="13">
         <v>200</v>
       </c>
       <c r="AI7">
         <v>300</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AJ7" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AK7">
@@ -2403,7 +2413,7 @@
       <c r="BH7">
         <v>0</v>
       </c>
-      <c r="BK7" s="10">
+      <c r="BK7" s="11">
         <v>1</v>
       </c>
       <c r="BL7" s="2" t="s">
@@ -2414,7 +2424,7 @@
       </c>
     </row>
     <row r="8" spans="1:65">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2435,31 +2445,31 @@
       <c r="G8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="12">
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
         <v>200</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
-      <c r="AJ8" s="12" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AK8">
@@ -2515,7 +2525,7 @@
       </c>
     </row>
     <row r="9" spans="1:65">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>170</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2536,28 +2546,28 @@
       <c r="G9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11" t="s">
         <v>172</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="12">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="13">
         <v>200</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9" s="12" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AK9">
@@ -2613,7 +2623,7 @@
       </c>
     </row>
     <row r="10" spans="1:65">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2634,28 +2644,28 @@
       <c r="G10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>175</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="12">
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
         <v>200</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" s="12" t="s">
+      <c r="AJ10" s="13" t="s">
         <v>154</v>
       </c>
       <c r="AK10">
@@ -2710,106 +2720,106 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="1" spans="1:65">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="11" customFormat="1" spans="1:65">
+      <c r="A11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>178</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="10">
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
         <v>200</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AJ11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AK11" s="11">
         <v>0.5</v>
       </c>
-      <c r="AM11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="10">
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11">
         <v>10000</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AP11" s="11">
         <v>200</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AQ11" s="11">
         <v>10000</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AR11" s="11">
         <v>100</v>
       </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AS11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="BK11" s="10">
+      <c r="BK11" s="11">
         <v>1</v>
       </c>
-      <c r="BL11" s="10" t="s">
+      <c r="BL11" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="BM11" s="10" t="s">
+      <c r="BM11" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="7:9">
       <c r="G12"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="11"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="7:9">
       <c r="G13"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="7:9">
       <c r="G14"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="7:9">
       <c r="G15"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="11"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="7:9">
       <c r="G16"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16"/>
     </row>
     <row r="26" spans="10:14">
@@ -2836,8 +2846,8 @@
   <sheetPr/>
   <dimension ref="A1:BX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2989,7 +2999,7 @@
       <c r="AL1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="AN1" s="5" t="s">
@@ -3216,7 +3226,7 @@
       <c r="AL2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="10" t="s">
         <v>113</v>
       </c>
       <c r="AN2" s="7" t="s">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="200">
   <si>
     <t>主键</t>
   </si>
@@ -149,10 +149,7 @@
     <t>攻击类型</t>
   </si>
   <si>
-    <t>最小攻击</t>
-  </si>
-  <si>
-    <t>最大攻击</t>
+    <t>初始攻击</t>
   </si>
   <si>
     <t>攻击频率</t>
@@ -377,10 +374,7 @@
     <t>AttackCapabilities</t>
   </si>
   <si>
-    <t>AttackDamageMin</t>
-  </si>
-  <si>
-    <t>AttackDamageMax</t>
+    <t>AttackDamage</t>
   </si>
   <si>
     <t>AttackRate</t>
@@ -555,6 +549,12 @@
   </si>
   <si>
     <t>models/props_gameplay/dummy/dummy.vmdl</t>
+  </si>
+  <si>
+    <t>npc_dota_target_dummy</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/donkey.vmdl</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1599,14 +1599,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX26"/>
+  <dimension ref="A1:BW26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN2"/>
+      <selection pane="bottomRight" activeCell="AT1" sqref="AT1:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1615,7 +1615,7 @@
     <col min="2" max="4" width="12.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.6416666666667" customWidth="1"/>
     <col min="6" max="6" width="41.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.1" style="7" customWidth="1"/>
     <col min="8" max="8" width="63" style="12" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="7" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="13" customWidth="1"/>
@@ -1645,12 +1645,13 @@
     <col min="43" max="43" width="10.625" customWidth="1"/>
     <col min="44" max="44" width="16.25" customWidth="1"/>
     <col min="45" max="45" width="25.3666666666667" customWidth="1"/>
-    <col min="64" max="64" width="35.125" customWidth="1"/>
-    <col min="65" max="65" width="35.25" customWidth="1"/>
-    <col min="66" max="66" width="30.625" customWidth="1"/>
+    <col min="46" max="46" width="17.5333333333333" customWidth="1"/>
+    <col min="63" max="63" width="35.125" customWidth="1"/>
+    <col min="64" max="64" width="35.25" customWidth="1"/>
+    <col min="65" max="65" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:76">
+    <row r="1" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1835,7 @@
       <c r="BI1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -1876,264 +1877,258 @@
       <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:76">
+    <row r="2" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BD2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BH2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BI2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BK2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BN2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="BO2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:9">
       <c r="A3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -2141,28 +2136,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2170,84 +2165,84 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="AS5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:64">
+      <c r="A6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="B6" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:65">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L6" s="13">
         <v>200</v>
@@ -2256,7 +2251,7 @@
         <v>200</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AH6" s="13">
         <v>200</v>
@@ -2265,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK6">
         <v>0.5</v>
@@ -2289,11 +2284,14 @@
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6">
+        <v>153</v>
+      </c>
+      <c r="AZ6">
         <v>900</v>
       </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
       <c r="BC6">
         <v>0</v>
       </c>
@@ -2309,49 +2307,46 @@
       <c r="BG6">
         <v>0</v>
       </c>
-      <c r="BH6">
-        <v>0</v>
+      <c r="BK6" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="BL6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
+      <c r="A7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="BM6" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:65">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L7" s="13">
         <v>1000</v>
@@ -2366,7 +2361,7 @@
         <v>300</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK7">
         <v>0.5</v>
@@ -2390,11 +2385,14 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA7">
+        <v>153</v>
+      </c>
+      <c r="AZ7">
         <v>900</v>
       </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
       <c r="BC7">
         <v>0</v>
       </c>
@@ -2410,52 +2408,49 @@
       <c r="BG7">
         <v>0</v>
       </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="11">
+      <c r="BJ7" s="11">
         <v>1</v>
       </c>
+      <c r="BK7" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="BL7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:64">
       <c r="A8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2470,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK8">
         <v>0.5</v>
@@ -2494,11 +2489,14 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA8">
+        <v>153</v>
+      </c>
+      <c r="AZ8">
         <v>900</v>
       </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
       <c r="BC8">
         <v>0</v>
       </c>
@@ -2514,46 +2512,43 @@
       <c r="BG8">
         <v>0</v>
       </c>
-      <c r="BH8">
-        <v>0</v>
+      <c r="BK8" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:64">
       <c r="A9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2568,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK9">
         <v>0.5</v>
@@ -2592,11 +2587,14 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA9">
+        <v>153</v>
+      </c>
+      <c r="AZ9">
         <v>900</v>
       </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
       <c r="BC9">
         <v>0</v>
       </c>
@@ -2612,46 +2610,43 @@
       <c r="BG9">
         <v>0</v>
       </c>
-      <c r="BH9">
-        <v>0</v>
+      <c r="BK9" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:64">
       <c r="A10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2666,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK10">
         <v>0.5</v>
@@ -2690,11 +2685,14 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA10">
+        <v>153</v>
+      </c>
+      <c r="AZ10">
         <v>900</v>
       </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
       <c r="BC10">
         <v>0</v>
       </c>
@@ -2710,46 +2708,43 @@
       <c r="BG10">
         <v>0</v>
       </c>
-      <c r="BH10">
-        <v>0</v>
+      <c r="BK10" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:65">
+    <row r="11" s="11" customFormat="1" spans="1:64">
       <c r="A11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -2761,7 +2756,7 @@
         <v>200</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK11" s="11">
         <v>0.5</v>
@@ -2776,31 +2771,100 @@
         <v>10000</v>
       </c>
       <c r="AP11" s="11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ11" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL11" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64">
+      <c r="A12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="13">
         <v>100</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK11" s="11">
+      <c r="M12" s="13">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>120</v>
+      </c>
+      <c r="AI12">
+        <v>350</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>5000</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="11">
         <v>1</v>
       </c>
-      <c r="BL11" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM11" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9">
-      <c r="G12"/>
-      <c r="H12" s="11"/>
-      <c r="I12"/>
+      <c r="BK12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL12" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="13" spans="7:9">
       <c r="G13"/>
@@ -2830,11 +2894,6 @@
       <c r="N26" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="傀儡目标" tooltip="http://www.baidu.com/link?url=D5z6uDofmcmH8qde2Vo0fyIzfNNUd0s92QJQe2_jn747mfFsLdfWFdGnxHDu9UWpkD9sByfLTJ9nn5CqRNlDgL2uBUIXbl4n1c0Xmp_LLFu"/>
-    <hyperlink ref="C11" r:id="rId1" display="傀儡目标" tooltip="http://www.baidu.com/link?url=D5z6uDofmcmH8qde2Vo0fyIzfNNUd0s92QJQe2_jn747mfFsLdfWFdGnxHDu9UWpkD9sByfLTJ9nn5CqRNlDgL2uBUIXbl4n1c0Xmp_LLFu"/>
-    <hyperlink ref="D11" r:id="rId1" display="傀儡目标" tooltip="http://www.baidu.com/link?url=D5z6uDofmcmH8qde2Vo0fyIzfNNUd0s92QJQe2_jn747mfFsLdfWFdGnxHDu9UWpkD9sByfLTJ9nn5CqRNlDgL2uBUIXbl4n1c0Xmp_LLFu"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2844,10 +2903,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BX24"/>
+  <dimension ref="A1:BW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT$1:AT$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2872,19 +2931,19 @@
     <col min="38" max="38" width="12.875" customWidth="1"/>
     <col min="39" max="39" width="16.5" customWidth="1"/>
     <col min="40" max="40" width="15.375" customWidth="1"/>
-    <col min="41" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="21.375" customWidth="1"/>
-    <col min="51" max="53" width="17" customWidth="1"/>
-    <col min="54" max="55" width="19.625" customWidth="1"/>
-    <col min="56" max="57" width="17.625" customWidth="1"/>
-    <col min="58" max="59" width="22.125" customWidth="1"/>
-    <col min="60" max="60" width="19.375" customWidth="1"/>
-    <col min="61" max="61" width="16" customWidth="1"/>
-    <col min="67" max="68" width="29.125" customWidth="1"/>
-    <col min="69" max="75" width="13.125" customWidth="1"/>
+    <col min="41" max="48" width="17" customWidth="1"/>
+    <col min="49" max="49" width="21.375" customWidth="1"/>
+    <col min="50" max="52" width="17" customWidth="1"/>
+    <col min="53" max="54" width="19.625" customWidth="1"/>
+    <col min="55" max="56" width="17.625" customWidth="1"/>
+    <col min="57" max="58" width="22.125" customWidth="1"/>
+    <col min="59" max="59" width="19.375" customWidth="1"/>
+    <col min="60" max="60" width="16" customWidth="1"/>
+    <col min="66" max="67" width="29.125" customWidth="1"/>
+    <col min="68" max="74" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:76">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="3" t="s">
         <v>179</v>
       </c>
@@ -3065,7 +3124,7 @@
       <c r="BH1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BJ1" s="1" t="s">
@@ -3077,7 +3136,7 @@
       <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BO1" s="1" t="s">
@@ -3107,11 +3166,8 @@
       <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:76">
+    <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="6" t="s">
         <v>181</v>
       </c>
@@ -3119,229 +3175,226 @@
         <v>182</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BC2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BD2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BH2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BI2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BM2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="BO2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:75">
       <c r="A3" s="8" t="s">
         <v>184</v>
       </c>
@@ -3535,43 +3588,40 @@
         <v>187</v>
       </c>
       <c r="BM3" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN3" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BO3" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BP3" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BQ3" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BR3" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BT3" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BU3" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BW3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX3" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:75">
       <c r="A4" s="8" t="s">
         <v>198</v>
       </c>
@@ -3582,193 +3632,193 @@
         <v>182</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>183</v>
@@ -3795,9 +3845,6 @@
         <v>183</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BX4" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3805,37 +3852,37 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="21" spans="66:71">
+    <row r="21" spans="65:70">
+      <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
     </row>
-    <row r="22" spans="66:71">
+    <row r="22" spans="65:70">
+      <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
       <c r="BO22" s="2"/>
       <c r="BP22" s="2"/>
       <c r="BQ22" s="2"/>
       <c r="BR22" s="2"/>
-      <c r="BS22" s="2"/>
     </row>
-    <row r="23" spans="66:71">
+    <row r="23" spans="65:70">
+      <c r="BM23" s="8"/>
       <c r="BN23" s="8"/>
       <c r="BO23" s="8"/>
       <c r="BP23" s="8"/>
       <c r="BQ23" s="8"/>
       <c r="BR23" s="8"/>
-      <c r="BS23" s="8"/>
     </row>
-    <row r="24" spans="66:71">
+    <row r="24" spans="65:70">
+      <c r="BM24" s="4"/>
       <c r="BN24" s="4"/>
       <c r="BO24" s="4"/>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="4"/>
       <c r="BR24" s="4"/>
-      <c r="BS24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="199">
   <si>
     <t>主键</t>
   </si>
@@ -441,9 +441,6 @@
   </si>
   <si>
     <t>侦查守卫单位</t>
-  </si>
-  <si>
-    <t>npc</t>
   </si>
   <si>
     <t>npc/units/common/npc_unit_comon</t>
@@ -1601,12 +1598,12 @@
   <sheetPr/>
   <dimension ref="A1:BW26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT1" sqref="AT1:AT2"/>
+      <selection pane="bottomRight" activeCell="AL6" sqref="AM11 AL6:AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2118,17 +2115,15 @@
       <c r="D3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -2136,28 +2131,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2165,84 +2158,80 @@
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AS5" t="s">
         <v>152</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:64">
       <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L6" s="13">
         <v>200</v>
@@ -2251,7 +2240,7 @@
         <v>200</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH6" s="13">
         <v>200</v>
@@ -2260,11 +2249,14 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK6">
         <v>0.5</v>
       </c>
+      <c r="AL6" s="11">
+        <v>0</v>
+      </c>
       <c r="AM6">
         <v>0</v>
       </c>
@@ -2284,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ6">
         <v>900</v>
@@ -2308,45 +2300,43 @@
         <v>0</v>
       </c>
       <c r="BK6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL6" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="13">
         <v>1000</v>
@@ -2361,11 +2351,14 @@
         <v>300</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK7">
         <v>0.5</v>
       </c>
+      <c r="AL7" s="11">
+        <v>0</v>
+      </c>
       <c r="AM7">
         <v>0</v>
       </c>
@@ -2385,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ7">
         <v>900</v>
@@ -2412,45 +2405,43 @@
         <v>1</v>
       </c>
       <c r="BK7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2465,11 +2456,14 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK8">
         <v>0.5</v>
       </c>
+      <c r="AL8" s="11">
+        <v>0</v>
+      </c>
       <c r="AM8">
         <v>0</v>
       </c>
@@ -2489,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ8">
         <v>900</v>
@@ -2513,42 +2507,40 @@
         <v>0</v>
       </c>
       <c r="BK8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL8" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:64">
       <c r="A9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2563,11 +2555,14 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK9">
         <v>0.5</v>
       </c>
+      <c r="AL9" s="11">
+        <v>0</v>
+      </c>
       <c r="AM9">
         <v>0</v>
       </c>
@@ -2587,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ9">
         <v>900</v>
@@ -2611,42 +2606,40 @@
         <v>0</v>
       </c>
       <c r="BK9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL9" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:64">
       <c r="A10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2661,11 +2654,14 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK10">
         <v>0.5</v>
       </c>
+      <c r="AL10" s="11">
+        <v>0</v>
+      </c>
       <c r="AM10">
         <v>0</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AZ10">
         <v>900</v>
@@ -2709,42 +2705,40 @@
         <v>0</v>
       </c>
       <c r="BK10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL10" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="BL10" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="1:64">
       <c r="A11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="I11" s="7">
         <v>3</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -2756,11 +2750,14 @@
         <v>200</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK11" s="11">
         <v>0.5</v>
       </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
       <c r="AM11" s="11">
         <v>0</v>
       </c>
@@ -2780,45 +2777,43 @@
         <v>0</v>
       </c>
       <c r="AS11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BJ11" s="11">
         <v>1</v>
       </c>
       <c r="BK11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL11" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="BL11" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:64">
       <c r="A12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="13">
         <v>100</v>
@@ -2833,11 +2828,14 @@
         <v>350</v>
       </c>
       <c r="AJ12" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK12" s="11">
         <v>0.5</v>
       </c>
+      <c r="AL12" s="11">
+        <v>0</v>
+      </c>
       <c r="AM12">
         <v>0</v>
       </c>
@@ -2860,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="BK12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL12" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="BL12" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="7:9">
@@ -2905,7 +2903,7 @@
   <sheetPr/>
   <dimension ref="A1:BW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AT1" sqref="AT$1:AT$1048576"/>
     </sheetView>
   </sheetViews>
@@ -2945,10 +2943,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3169,10 +3167,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -3361,7 +3359,7 @@
         <v>137</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>138</v>
@@ -3396,456 +3394,456 @@
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="BR3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="BS3" s="8" t="s">
+      <c r="BT3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="BT3" s="8" t="s">
+      <c r="BU3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="BU3" s="8" t="s">
+      <c r="BV3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="BV3" s="8" t="s">
+      <c r="BW3" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="BW3" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="BO4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="18:19">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="202">
   <si>
     <t>主键</t>
   </si>
@@ -552,6 +552,15 @@
   </si>
   <si>
     <t>models/props_gameplay/donkey.vmdl</t>
+  </si>
+  <si>
+    <t>wearable_dummy</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>npc_dota_base_additive</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1599,11 +1608,11 @@
   <dimension ref="A1:BW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL6" sqref="AM11 AL6:AL12"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2115,7 +2124,6 @@
       <c r="D3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>141</v>
       </c>
@@ -2724,7 +2732,6 @@
       <c r="D11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="11"/>
       <c r="F11" s="4" t="s">
         <v>141</v>
       </c>
@@ -2864,8 +2871,22 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="7:9">
-      <c r="G13"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13"/>
     </row>
@@ -2876,13 +2897,16 @@
     </row>
     <row r="15" spans="7:9">
       <c r="G15"/>
-      <c r="H15" s="11"/>
+      <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="7:9">
       <c r="G16"/>
-      <c r="H16" s="11"/>
+      <c r="H16"/>
       <c r="I16"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17"/>
     </row>
     <row r="26" spans="10:14">
       <c r="J26" s="7"/>
@@ -2943,10 +2967,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3167,10 +3191,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -3359,7 +3383,7 @@
         <v>137</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>138</v>
@@ -3394,240 +3418,240 @@
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AU3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AV3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AW3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AX3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AZ3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BI3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BJ3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BL3" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BM3" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BN3" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BO3" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BP3" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BQ3" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BR3" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BT3" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BU3" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BW3" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>73</v>
@@ -3816,34 +3840,34 @@
         <v>73</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="18:19">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="211">
   <si>
     <t>主键</t>
   </si>
@@ -437,6 +437,15 @@
     <t>AttachWearables</t>
   </si>
   <si>
+    <t>wearable_dummy</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>npc_dota_base_additive</t>
+  </si>
+  <si>
     <t>unit_ward_observer</t>
   </si>
   <si>
@@ -554,13 +563,31 @@
     <t>models/props_gameplay/donkey.vmdl</t>
   </si>
   <si>
-    <t>wearable_dummy</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>npc_dota_base_additive</t>
+    <t>unit_npc_eon_cart</t>
+  </si>
+  <si>
+    <t>拖车</t>
+  </si>
+  <si>
+    <t>models/props_generic/wagon_wood_02_centaur.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_LARGE</t>
+  </si>
+  <si>
+    <t>unit_npc_courier_egg</t>
+  </si>
+  <si>
+    <t>信使蛋</t>
+  </si>
+  <si>
+    <t>models/items/phoenix/ultimate/blazing_wing_blazing_egg/blazing_wing_blazing_egg.vmdl</t>
+  </si>
+  <si>
+    <t>courier_egg_honor</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_NONE</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1608,11 +1635,11 @@
   <dimension ref="A1:BW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1630,7 +1657,7 @@
     <col min="15" max="15" width="20.25" style="13" customWidth="1"/>
     <col min="16" max="17" width="17.75" style="13" customWidth="1"/>
     <col min="18" max="18" width="31.2333333333333" style="13" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="16.5916666666667" style="13" customWidth="1"/>
     <col min="20" max="20" width="8.375" style="13" customWidth="1"/>
     <col min="21" max="21" width="12.375" style="13" customWidth="1"/>
     <col min="22" max="22" width="15.75" style="13" customWidth="1"/>
@@ -1652,8 +1679,8 @@
     <col min="44" max="44" width="16.25" customWidth="1"/>
     <col min="45" max="45" width="25.3666666666667" customWidth="1"/>
     <col min="46" max="46" width="17.5333333333333" customWidth="1"/>
-    <col min="63" max="63" width="35.125" customWidth="1"/>
-    <col min="64" max="64" width="35.25" customWidth="1"/>
+    <col min="63" max="63" width="35.0833333333333" style="13" customWidth="1"/>
+    <col min="64" max="64" width="35.25" style="13" customWidth="1"/>
     <col min="65" max="65" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1763,7 +1790,7 @@
       <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AK1" s="5" t="s">
@@ -1844,10 +1871,10 @@
       <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BM1" s="1" t="s">
@@ -2111,8 +2138,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:9">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2124,242 +2151,162 @@
       <c r="D3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:64">
+      <c r="A4" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="C4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
+      <c r="AJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>147</v>
+      <c r="B5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AJ5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64">
-      <c r="A6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS6" t="s">
         <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="13">
-        <v>200</v>
-      </c>
-      <c r="M6" s="13">
-        <v>200</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH6" s="13">
-        <v>200</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6">
-        <v>0.5</v>
-      </c>
-      <c r="AL6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>10000</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ6">
-        <v>900</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L7" s="13">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M7" s="13">
-        <v>1000</v>
+        <v>200</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="AH7" s="13">
         <v>200</v>
       </c>
       <c r="AI7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK7">
         <v>0.5</v>
@@ -2374,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AZ7">
         <v>900</v>
@@ -2409,62 +2356,59 @@
       <c r="BG7">
         <v>0</v>
       </c>
-      <c r="BJ7" s="11">
-        <v>1</v>
-      </c>
       <c r="BK7" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>166</v>
       </c>
       <c r="I8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L8" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M8" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" s="13">
         <v>200</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AJ8" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK8">
         <v>0.5</v>
@@ -2479,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR8">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AZ8">
         <v>900</v>
@@ -2514,11 +2458,14 @@
       <c r="BG8">
         <v>0</v>
       </c>
+      <c r="BJ8" s="11">
+        <v>1</v>
+      </c>
       <c r="BK8" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -2536,19 +2483,22 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2563,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK9">
         <v>0.5</v>
@@ -2578,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2590,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AZ9">
         <v>900</v>
@@ -2614,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:64">
@@ -2635,10 +2585,10 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>172</v>
@@ -2647,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2662,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK10">
         <v>0.5</v>
@@ -2689,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AZ10">
         <v>900</v>
@@ -2713,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:64">
+    <row r="11" spans="1:64">
       <c r="A11" s="11" t="s">
         <v>173</v>
       </c>
@@ -2732,110 +2682,131 @@
       <c r="D11" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13">
         <v>200</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK11" s="11">
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK11">
         <v>0.5</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
       </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ11" s="11">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>1</v>
       </c>
-      <c r="BK11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL11" s="11" t="s">
-        <v>159</v>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ11">
+        <v>900</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" s="11" customFormat="1" spans="1:64">
       <c r="A12" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="13">
-        <v>100</v>
-      </c>
-      <c r="M12" s="13">
-        <v>100</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>120</v>
-      </c>
-      <c r="AI12">
-        <v>350</v>
+        <v>152</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>200</v>
       </c>
       <c r="AJ12" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AK12" s="11">
         <v>0.5</v>
@@ -2843,62 +2814,241 @@
       <c r="AL12" s="11">
         <v>0</v>
       </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>5000</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
+      <c r="AM12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>10000</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="BJ12" s="11">
         <v>1</v>
       </c>
-      <c r="BK12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL12" s="11" t="s">
+      <c r="BK12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL12" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64">
+      <c r="A13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="13">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>120</v>
+      </c>
+      <c r="AI13">
+        <v>350</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>5000</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="11">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL13" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="13">
+        <v>600</v>
+      </c>
+      <c r="M14" s="13">
+        <v>600</v>
+      </c>
+      <c r="AI14">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>1000</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="A15" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="7:9">
-      <c r="G14"/>
-      <c r="H14" s="11"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="7:9">
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="K15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="13">
+        <v>600</v>
+      </c>
+      <c r="M15" s="13">
+        <v>600</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>100</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL15" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="7:9">
       <c r="G16"/>
@@ -2967,10 +3117,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:75">
       <c r="A1" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3191,10 +3341,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -3383,7 +3533,7 @@
         <v>137</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>138</v>
@@ -3418,240 +3568,240 @@
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AU3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AV3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AW3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AZ3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BI3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BJ3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BL3" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="BM3" s="8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="BN3" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="BO3" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="BP3" s="8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="BQ3" s="8" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="BR3" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="BT3" s="8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="BU3" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="BW3" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>73</v>
@@ -3840,34 +3990,34 @@
         <v>73</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="18:19">

--- a/code/excels/units/common_units.xlsx
+++ b/code/excels/units/common_units.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="212">
   <si>
     <t>主键</t>
   </si>
@@ -161,439 +161,442 @@
     <t>攻击范围</t>
   </si>
   <si>
+    <t>攻击警戒范围</t>
+  </si>
+  <si>
+    <t>弹道模型</t>
+  </si>
+  <si>
+    <t>弹道速度</t>
+  </si>
+  <si>
+    <t>主属性</t>
+  </si>
+  <si>
+    <t>基础力量</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>基础敏捷</t>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+  </si>
+  <si>
+    <t>基础智力</t>
+  </si>
+  <si>
+    <t>智力成长</t>
+  </si>
+  <si>
+    <t>是否有套装珍藏</t>
+  </si>
+  <si>
+    <t>珍藏ID</t>
+  </si>
+  <si>
+    <t>当作英雄</t>
+  </si>
+  <si>
+    <t>战斗的攻击类型</t>
+  </si>
+  <si>
+    <t>战斗的防守类型</t>
+  </si>
+  <si>
+    <t>出生动作BUFF</t>
+  </si>
+  <si>
+    <t>组件1</t>
+  </si>
+  <si>
+    <t>组件2</t>
+  </si>
+  <si>
+    <t>组件3</t>
+  </si>
+  <si>
+    <t>组件4</t>
+  </si>
+  <si>
+    <t>组件5</t>
+  </si>
+  <si>
+    <t>组件6</t>
+  </si>
+  <si>
+    <t>组件7</t>
+  </si>
+  <si>
+    <t>组件8</t>
+  </si>
+  <si>
+    <t>组件9</t>
+  </si>
+  <si>
+    <t>组件10</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>schinese</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>UnitLabel</t>
+  </si>
+  <si>
+    <t>vscripts</t>
+  </si>
+  <si>
+    <t>BaseClass</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ModelScale</t>
+  </si>
+  <si>
+    <t>SoundSet</t>
+  </si>
+  <si>
+    <t>BoundsHullName</t>
+  </si>
+  <si>
+    <t>VisionDaytimeRange</t>
+  </si>
+  <si>
+    <t>VisionNighttimeRange</t>
+  </si>
+  <si>
+    <t>MinimapIcon</t>
+  </si>
+  <si>
+    <t>HeroSelectSoundEffect</t>
+  </si>
+  <si>
+    <t>GameSoundsFile</t>
+  </si>
+  <si>
+    <t>VoiceFile</t>
+  </si>
+  <si>
+    <t>particle_folder</t>
+  </si>
+  <si>
+    <t>Ability1</t>
+  </si>
+  <si>
+    <t>Ability2</t>
+  </si>
+  <si>
+    <t>Ability3</t>
+  </si>
+  <si>
+    <t>Ability4</t>
+  </si>
+  <si>
+    <t>Ability5</t>
+  </si>
+  <si>
+    <t>Ability6</t>
+  </si>
+  <si>
+    <t>Ability10</t>
+  </si>
+  <si>
+    <t>Ability11</t>
+  </si>
+  <si>
+    <t>Ability12</t>
+  </si>
+  <si>
+    <t>Ability13</t>
+  </si>
+  <si>
+    <t>Ability14</t>
+  </si>
+  <si>
+    <t>Ability15</t>
+  </si>
+  <si>
+    <t>Ability16</t>
+  </si>
+  <si>
+    <t>Ability17</t>
+  </si>
+  <si>
+    <t>AbilityLayout</t>
+  </si>
+  <si>
+    <t>HealthBarOffset</t>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
+  </si>
+  <si>
+    <t>MovementCapabilities</t>
+  </si>
+  <si>
+    <t>MovementTurnRate</t>
+  </si>
+  <si>
+    <t>HasAggressiveStance</t>
+  </si>
+  <si>
+    <t>ArmorPhysical</t>
+  </si>
+  <si>
+    <t>ArmorMagical</t>
+  </si>
+  <si>
+    <t>StatusHealth</t>
+  </si>
+  <si>
+    <t>StatusHealthRegen</t>
+  </si>
+  <si>
+    <t>StatusMana</t>
+  </si>
+  <si>
+    <t>StatusManaRegen</t>
+  </si>
+  <si>
+    <t>AttackCapabilities</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>AttackAnimationPoint</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>AttackAcquisitionRange</t>
+  </si>
+  <si>
+    <t>ProjectileModel</t>
+  </si>
+  <si>
+    <t>ProjectileSpeed</t>
+  </si>
+  <si>
+    <t>AttributePrimary</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength</t>
+  </si>
+  <si>
+    <t>AttributeStrengthGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility</t>
+  </si>
+  <si>
+    <t>AttributeAgilityGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence</t>
+  </si>
+  <si>
+    <t>AttributeIntelligenceGain</t>
+  </si>
+  <si>
+    <t>HasInventory</t>
+  </si>
+  <si>
+    <t>InventorySlots</t>
+  </si>
+  <si>
+    <t>ConsideredHero</t>
+  </si>
+  <si>
+    <t>CombatClassAttack</t>
+  </si>
+  <si>
+    <t>CombatClassDefend</t>
+  </si>
+  <si>
+    <t>AmbientModifiers</t>
+  </si>
+  <si>
+    <t>AttachWearables</t>
+  </si>
+  <si>
+    <t>wearable_dummy</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>npc_dota_base_additive</t>
+  </si>
+  <si>
+    <t>unit_ward_observer</t>
+  </si>
+  <si>
+    <t>侦查守卫单位</t>
+  </si>
+  <si>
+    <t>npc/units/common/npc_unit_comon</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>models/heroes/techies/fx_techies_remotebomb.vmdl</t>
+  </si>
+  <si>
+    <t>unit_remote_mine</t>
+  </si>
+  <si>
+    <t>遥控炸弹</t>
+  </si>
+  <si>
+    <t>unit_dummy</t>
+  </si>
+  <si>
+    <t>目标伤害点</t>
+  </si>
+  <si>
+    <t>models/development/invisiblebox.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_HERO</t>
+  </si>
+  <si>
+    <t>minimap_plaincircle</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
+  </si>
+  <si>
+    <t>unit_portal</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>models/heroes/abyssal_underlord/abyssal_underlord_portal_model.vmdl</t>
+  </si>
+  <si>
+    <t>Creep_Good_Melee</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/heroes_underlord</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>unit_enemy_courier</t>
+  </si>
+  <si>
+    <t>敌方信使</t>
+  </si>
+  <si>
+    <t>npc/courier/enemy_courier</t>
+  </si>
+  <si>
+    <t>models/ui/treasure/reaver_2022_treasure/reaver_2022_treasure.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_bossbaoxiang</t>
+  </si>
+  <si>
+    <t>基地统领宝箱</t>
+  </si>
+  <si>
+    <t>models/ui/treasure/ti10_treasure/ti10_treasure.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_gold_bag</t>
+  </si>
+  <si>
+    <t>基地金币袋子</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/gold_bag.vmdl</t>
+  </si>
+  <si>
+    <t>unit_base_equip_bag</t>
+  </si>
+  <si>
+    <t>装备箱子</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/treasure_chest001b.vmdl</t>
+  </si>
+  <si>
+    <t>unit_target_dummy</t>
+  </si>
+  <si>
+    <t>傀儡目标</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/dummy/dummy.vmdl</t>
+  </si>
+  <si>
+    <t>npc_dota_target_dummy</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/donkey.vmdl</t>
+  </si>
+  <si>
+    <t>unit_npc_eon_cart</t>
+  </si>
+  <si>
+    <t>拖车</t>
+  </si>
+  <si>
+    <t>models/props_generic/wagon_wood_02_centaur.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_LARGE</t>
+  </si>
+  <si>
+    <t>unit_npc_courier_egg</t>
+  </si>
+  <si>
+    <t>信使蛋</t>
+  </si>
+  <si>
+    <t>models/items/phoenix/ultimate/blazing_wing_blazing_egg/blazing_wing_blazing_egg.vmdl</t>
+  </si>
+  <si>
+    <t>courier_egg_honor</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_NONE</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
     <t>攻击拾取范围</t>
-  </si>
-  <si>
-    <t>弹道模型</t>
-  </si>
-  <si>
-    <t>弹道速度</t>
-  </si>
-  <si>
-    <t>主属性</t>
-  </si>
-  <si>
-    <t>基础力量</t>
-  </si>
-  <si>
-    <t>力量成长</t>
-  </si>
-  <si>
-    <t>基础敏捷</t>
-  </si>
-  <si>
-    <t>敏捷成长</t>
-  </si>
-  <si>
-    <t>基础智力</t>
-  </si>
-  <si>
-    <t>智力成长</t>
-  </si>
-  <si>
-    <t>是否有套装珍藏</t>
-  </si>
-  <si>
-    <t>珍藏ID</t>
-  </si>
-  <si>
-    <t>当作英雄</t>
-  </si>
-  <si>
-    <t>战斗的攻击类型</t>
-  </si>
-  <si>
-    <t>战斗的防守类型</t>
-  </si>
-  <si>
-    <t>出生动作BUFF</t>
-  </si>
-  <si>
-    <t>组件1</t>
-  </si>
-  <si>
-    <t>组件2</t>
-  </si>
-  <si>
-    <t>组件3</t>
-  </si>
-  <si>
-    <t>组件4</t>
-  </si>
-  <si>
-    <t>组件5</t>
-  </si>
-  <si>
-    <t>组件6</t>
-  </si>
-  <si>
-    <t>组件7</t>
-  </si>
-  <si>
-    <t>组件8</t>
-  </si>
-  <si>
-    <t>组件9</t>
-  </si>
-  <si>
-    <t>组件10</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>schinese</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>russian</t>
-  </si>
-  <si>
-    <t>UnitLabel</t>
-  </si>
-  <si>
-    <t>vscripts</t>
-  </si>
-  <si>
-    <t>BaseClass</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>ModelScale</t>
-  </si>
-  <si>
-    <t>SoundSet</t>
-  </si>
-  <si>
-    <t>BoundsHullName</t>
-  </si>
-  <si>
-    <t>VisionDaytimeRange</t>
-  </si>
-  <si>
-    <t>VisionNighttimeRange</t>
-  </si>
-  <si>
-    <t>MinimapIcon</t>
-  </si>
-  <si>
-    <t>HeroSelectSoundEffect</t>
-  </si>
-  <si>
-    <t>GameSoundsFile</t>
-  </si>
-  <si>
-    <t>VoiceFile</t>
-  </si>
-  <si>
-    <t>particle_folder</t>
-  </si>
-  <si>
-    <t>Ability1</t>
-  </si>
-  <si>
-    <t>Ability2</t>
-  </si>
-  <si>
-    <t>Ability3</t>
-  </si>
-  <si>
-    <t>Ability4</t>
-  </si>
-  <si>
-    <t>Ability5</t>
-  </si>
-  <si>
-    <t>Ability6</t>
-  </si>
-  <si>
-    <t>Ability10</t>
-  </si>
-  <si>
-    <t>Ability11</t>
-  </si>
-  <si>
-    <t>Ability12</t>
-  </si>
-  <si>
-    <t>Ability13</t>
-  </si>
-  <si>
-    <t>Ability14</t>
-  </si>
-  <si>
-    <t>Ability15</t>
-  </si>
-  <si>
-    <t>Ability16</t>
-  </si>
-  <si>
-    <t>Ability17</t>
-  </si>
-  <si>
-    <t>AbilityLayout</t>
-  </si>
-  <si>
-    <t>HealthBarOffset</t>
-  </si>
-  <si>
-    <t>MovementSpeed</t>
-  </si>
-  <si>
-    <t>MovementCapabilities</t>
-  </si>
-  <si>
-    <t>MovementTurnRate</t>
-  </si>
-  <si>
-    <t>HasAggressiveStance</t>
-  </si>
-  <si>
-    <t>ArmorPhysical</t>
-  </si>
-  <si>
-    <t>ArmorMagical</t>
-  </si>
-  <si>
-    <t>StatusHealth</t>
-  </si>
-  <si>
-    <t>StatusHealthRegen</t>
-  </si>
-  <si>
-    <t>StatusMana</t>
-  </si>
-  <si>
-    <t>StatusManaRegen</t>
-  </si>
-  <si>
-    <t>AttackCapabilities</t>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>AttackAnimationPoint</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>AttackAcquisitionRange</t>
-  </si>
-  <si>
-    <t>ProjectileModel</t>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
-  </si>
-  <si>
-    <t>AttributePrimary</t>
-  </si>
-  <si>
-    <t>AttributeBaseStrength</t>
-  </si>
-  <si>
-    <t>AttributeStrengthGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseAgility</t>
-  </si>
-  <si>
-    <t>AttributeAgilityGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseIntelligence</t>
-  </si>
-  <si>
-    <t>AttributeIntelligenceGain</t>
-  </si>
-  <si>
-    <t>HasInventory</t>
-  </si>
-  <si>
-    <t>InventorySlots</t>
-  </si>
-  <si>
-    <t>ConsideredHero</t>
-  </si>
-  <si>
-    <t>CombatClassAttack</t>
-  </si>
-  <si>
-    <t>CombatClassDefend</t>
-  </si>
-  <si>
-    <t>AmbientModifiers</t>
-  </si>
-  <si>
-    <t>AttachWearables</t>
-  </si>
-  <si>
-    <t>wearable_dummy</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>npc_dota_base_additive</t>
-  </si>
-  <si>
-    <t>unit_ward_observer</t>
-  </si>
-  <si>
-    <t>侦查守卫单位</t>
-  </si>
-  <si>
-    <t>npc/units/common/npc_unit_comon</t>
-  </si>
-  <si>
-    <t>npc_dota_creature</t>
-  </si>
-  <si>
-    <t>models/heroes/techies/fx_techies_remotebomb.vmdl</t>
-  </si>
-  <si>
-    <t>unit_remote_mine</t>
-  </si>
-  <si>
-    <t>遥控炸弹</t>
-  </si>
-  <si>
-    <t>unit_dummy</t>
-  </si>
-  <si>
-    <t>目标伤害点</t>
-  </si>
-  <si>
-    <t>models/development/invisiblebox.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_HULL_SIZE_HERO</t>
-  </si>
-  <si>
-    <t>minimap_plaincircle</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
-  </si>
-  <si>
-    <t>unit_portal</t>
-  </si>
-  <si>
-    <t>传送门</t>
-  </si>
-  <si>
-    <t>models/heroes/abyssal_underlord/abyssal_underlord_portal_model.vmdl</t>
-  </si>
-  <si>
-    <t>Creep_Good_Melee</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/heroes_underlord</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
-  </si>
-  <si>
-    <t>unit_enemy_courier</t>
-  </si>
-  <si>
-    <t>敌方信使</t>
-  </si>
-  <si>
-    <t>npc/courier/enemy_courier</t>
-  </si>
-  <si>
-    <t>models/ui/treasure/reaver_2022_treasure/reaver_2022_treasure.vmdl</t>
-  </si>
-  <si>
-    <t>unit_base_bossbaoxiang</t>
-  </si>
-  <si>
-    <t>基地统领宝箱</t>
-  </si>
-  <si>
-    <t>models/ui/treasure/ti10_treasure/ti10_treasure.vmdl</t>
-  </si>
-  <si>
-    <t>unit_base_gold_bag</t>
-  </si>
-  <si>
-    <t>基地金币袋子</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/gold_bag.vmdl</t>
-  </si>
-  <si>
-    <t>unit_base_equip_bag</t>
-  </si>
-  <si>
-    <t>装备箱子</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/treasure_chest001b.vmdl</t>
-  </si>
-  <si>
-    <t>unit_target_dummy</t>
-  </si>
-  <si>
-    <t>傀儡目标</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/dummy/dummy.vmdl</t>
-  </si>
-  <si>
-    <t>npc_dota_target_dummy</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/donkey.vmdl</t>
-  </si>
-  <si>
-    <t>unit_npc_eon_cart</t>
-  </si>
-  <si>
-    <t>拖车</t>
-  </si>
-  <si>
-    <t>models/props_generic/wagon_wood_02_centaur.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_HULL_SIZE_LARGE</t>
-  </si>
-  <si>
-    <t>unit_npc_courier_egg</t>
-  </si>
-  <si>
-    <t>信使蛋</t>
-  </si>
-  <si>
-    <t>models/items/phoenix/ultimate/blazing_wing_blazing_egg/blazing_wing_blazing_egg.vmdl</t>
-  </si>
-  <si>
-    <t>courier_egg_honor</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_NONE</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表头</t>
   </si>
   <si>
     <t>字段</t>
@@ -1635,11 +1638,11 @@
   <dimension ref="A1:BW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3261,7 +3264,7 @@
         <v>46</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>48</v>
@@ -3341,10 +3344,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:75">
       <c r="A2" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -3533,7 +3536,7 @@
         <v>137</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>138</v>
@@ -3568,240 +3571,240 @@
     </row>
     <row r="3" spans="1:75">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM3" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="BN3" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BO3" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BP3" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BR3" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BT3" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BU3" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BV3" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BW3" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>73</v>
@@ -3990,34 +3993,34 @@
         <v>73</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BP4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="18:19">
